--- a/i2up/excel/hadoop1.xlsx
+++ b/i2up/excel/hadoop1.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sun_xo/learn/py/i2up/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{094F26D1-3C91-AD47-8D0D-4CC0F94F5C34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{756DCEB6-BCAD-9F4E-B12E-F06DBBD33008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="1380" windowWidth="28140" windowHeight="15180" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28140" windowHeight="15180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="hb_node" sheetId="12" r:id="rId1"/>
-    <sheet name="hb_hb_rule" sheetId="13" r:id="rId2"/>
+    <sheet name="work_node" sheetId="14" r:id="rId1"/>
+    <sheet name="hb_node" sheetId="12" r:id="rId2"/>
+    <sheet name="hb_hb_rule" sheetId="13" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="57">
   <si>
     <t>10.1.125.203</t>
   </si>
@@ -228,6 +229,45 @@
   </si>
   <si>
     <t>/rs_h1</t>
+  </si>
+  <si>
+    <t>名称</t>
+  </si>
+  <si>
+    <t>主机名</t>
+  </si>
+  <si>
+    <t>IP地址</t>
+  </si>
+  <si>
+    <t>数据端口</t>
+  </si>
+  <si>
+    <t>缓存目录</t>
+  </si>
+  <si>
+    <t>日志目录</t>
+  </si>
+  <si>
+    <t>口令</t>
+  </si>
+  <si>
+    <t>节点类型</t>
+  </si>
+  <si>
+    <t>/home/sunxo/i2data/cache/</t>
+  </si>
+  <si>
+    <t>/home/sunxo/i2data/log/</t>
+  </si>
+  <si>
+    <t>Info@1234</t>
+  </si>
+  <si>
+    <t>源端节点|备端节点</t>
+  </si>
+  <si>
+    <t>10.1.125.201</t>
   </si>
 </sst>
 </file>
@@ -601,6 +641,97 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D069C1F4-8F0E-1E4A-BD22-80059BDF20BF}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="3">
+        <v>26804</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{EB7EC4AB-69E3-5943-B44C-068C4B7D1A77}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1505F4D5-7932-7941-8F0B-447A680F701D}">
   <dimension ref="A1:K5"/>
   <sheetViews>
@@ -775,11 +906,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECEFF414-B0D7-AB46-B6AC-BF59E391BC88}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
